--- a/ornek_gider.xlsx
+++ b/ornek_gider.xlsx
@@ -34,7 +34,7 @@
     <t>Gider Bitiş Tarihi</t>
   </si>
   <si>
-    <t>ETKİ AKADEMİ</t>
+    <t>Etki Akademi</t>
   </si>
   <si>
     <t>2025-06-01</t>
@@ -46,19 +46,19 @@
     <t>2025-06-20</t>
   </si>
   <si>
-    <t>Kira</t>
-  </si>
-  <si>
     <t>Araç Sigortası</t>
   </si>
   <si>
-    <t>Elektrik</t>
+    <t>İşyeri Kirası</t>
+  </si>
+  <si>
+    <t>Yıllık Yazılım</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
   </si>
   <si>
     <t>2026-05-31</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,7 +473,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>24000</v>
+        <v>22750</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1800</v>
+        <v>24000</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
